--- a/data/trans_camb/P16A07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 1,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 0,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 0,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 4,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 0,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,36</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>225,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,0%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 49,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 51,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,65; 440,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,11; 98,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,31; 83,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,08; 383,32</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 2,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 0,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 2,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 1,34</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,03; 267,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,68; 170,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,32; 151,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,06; 108,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,22; 42,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,19; 107,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,65; 93,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,86; 29,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,13; 82,48</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 3,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 7,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 2,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 2,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 4,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,27; 221,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,82; 110,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,37; 181,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,59; 262,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,89; 91,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,66; 102,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,95; 181,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,68; 60,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; 93,04</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 1,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 5,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 3,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 2,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 1,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 1,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 2,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,49%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,55; 251,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,43; 140,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,88; 361,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,81; 54,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,54; 42,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,69; 26,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,1; 60,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,65; 40,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,97; 60,47</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 5,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 2,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 4,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 8,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 2,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 3,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 5,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 2,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 3,43</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,17%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,65%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; 202,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,54; 132,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 231,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 80,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,23; 29,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,95; 40,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 83,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,17; 32,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,15; 51,9</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 3,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 0,69</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 1,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 5,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 6,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 2,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 3,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 3,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 1,96</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,26%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,29%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,46; 118,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,11; 24,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,17; 65,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 63,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,5; 70,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,4; 31,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 56,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,66; 47,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,83; 31,1</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,75</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 3,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 2,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 1,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 1,91</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,46%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 99,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,38; 43,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,29; 115,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 55,49</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 32,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 39,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,81; 56,27</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 29,43</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,25; 48,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,59</t>
+          <t>-0,34; 1,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,13</t>
+          <t>-1,48; 3,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,36</t>
+          <t>-0,74; 1,79</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>24,69%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,65; 440,89</t>
+          <t>-71,37; 386,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,08; 383,32</t>
+          <t>-65,7; 311,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,46</t>
+          <t>-1,67; 0,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,33</t>
+          <t>-2,57; 1,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,34</t>
+          <t>-1,49; 0,98</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,7%</t>
+          <t>-55,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-12,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>-17,13%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-97,32; 151,16</t>
+          <t>-97,23; 130,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 107,75</t>
+          <t>-62,6; 82,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 82,48</t>
+          <t>-58,15; 62,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,59</t>
+          <t>-1,25; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,85</t>
+          <t>-1,2; 2,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,15</t>
+          <t>-0,71; 2,1</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>22,05%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 181,99</t>
+          <t>-47,16; 182,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 102,41</t>
+          <t>-27,9; 103,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 93,04</t>
+          <t>-20,33; 91,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,16</t>
+          <t>-1,48; 4,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,93</t>
+          <t>-4,5; 1,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,86</t>
+          <t>-2,46; 2,16</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>120,64%</t>
+          <t>73,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,88; 361,95</t>
+          <t>-38,56; 266,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 26,86</t>
+          <t>-37,89; 23,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 60,47</t>
+          <t>-36,61; 43,94</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,81</t>
+          <t>-0,26; 4,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,92</t>
+          <t>-4,07; 3,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,43</t>
+          <t>-1,6; 3,32</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>62,17%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 231,28</t>
+          <t>-8,27; 231,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 40,32</t>
+          <t>-26,47; 38,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 51,9</t>
+          <t>-15,86; 50,86</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,58</t>
+          <t>-2,72; 4,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,69</t>
+          <t>-4,66; 0,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,78</t>
+          <t>-4,06; 0,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,65</t>
+          <t>-1,78; 7,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 6,16</t>
+          <t>-1,46; 8,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,74</t>
+          <t>-10,66; 3,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,76</t>
+          <t>-1,08; 4,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,07</t>
+          <t>-1,86; 3,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,96</t>
+          <t>-5,21; 1,27</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-31,26%</t>
+          <t>-47,23%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>-19,44%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 118,15</t>
+          <t>-51,67; 182,84</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-65,11; 24,79</t>
+          <t>-81,82; 39,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 65,52</t>
+          <t>-72,96; 45,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 63,04</t>
+          <t>-15,4; 93,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 70,26</t>
+          <t>-12,7; 107,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 31,56</t>
+          <t>-74,77; 33,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 56,87</t>
+          <t>-13,29; 75,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 47,79</t>
+          <t>-22,84; 60,63</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 31,1</t>
+          <t>-58,22; 19,07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,83</t>
+          <t>-3,37; 4,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,75</t>
+          <t>-4,78; 2,6</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,14</t>
+          <t>-2,66; 4,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,25</t>
+          <t>-3,14; 6,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,9</t>
+          <t>-2,58; 7,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,29</t>
+          <t>-4,05; 4,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,19</t>
+          <t>-2,53; 4,38</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,17</t>
+          <t>-2,59; 4,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,91</t>
+          <t>-2,84; 3,15</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-15,26%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-52,69; 186,27</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-66,33; 112,78</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-35,23; 169,6</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-27,09; 88,09</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-22,38; 97,81</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-30,97; 60,84</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-27,46; 69,77</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-26,85; 68,01</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-27,36; 54,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,83</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 0,75</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,9</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 3,25</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 1,9</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 1,92</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 2,19</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 1,17</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 1,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>47,41%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>51,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>34,04%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>4,37; 99,44</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-26,38; 43,5</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 115,88</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 102,45</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>8,78; 55,49</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-8,42; 32,59</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 39,73</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 32,85</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>14,81; 56,27</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-5,81; 29,43</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>11,25; 48,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 39,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,5</t>
+          <t>-0,21; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,4</t>
+          <t>-0,2; 1,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,6</t>
+          <t>-0,31; 1,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,2</t>
+          <t>-2,62; 0,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,23</t>
+          <t>-2,61; 0,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,6</t>
+          <t>-1,42; 4,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,48</t>
+          <t>-1,12; 0,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,4</t>
+          <t>-1,31; 0,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,79</t>
+          <t>-0,73; 1,99</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,02</t>
+          <t>-100,0; 67,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 51,08</t>
+          <t>-100,0; 61,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,37; 386,56</t>
+          <t>-70,52; 440,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-83,11; 98,36</t>
+          <t>-77,9; 105,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,31; 83,29</t>
+          <t>-88,05; 75,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,7; 311,25</t>
+          <t>-61,68; 381,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,85</t>
+          <t>-0,92; 1,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,97</t>
+          <t>-1,27; 0,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,36</t>
+          <t>-1,59; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,17</t>
+          <t>-1,93; 2,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,79</t>
+          <t>-2,64; 0,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,65</t>
+          <t>-2,41; 1,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,49</t>
+          <t>-0,85; 1,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,41</t>
+          <t>-1,62; 0,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,98</t>
+          <t>-1,62; 0,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,03; 267,12</t>
+          <t>-56,61; 233,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 170,54</t>
+          <t>-77,64; 173,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-97,23; 130,68</t>
+          <t>-97,38; 118,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 108,33</t>
+          <t>-49,57; 115,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,22; 42,08</t>
+          <t>-68,83; 44,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,6; 82,98</t>
+          <t>-62,29; 89,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 93,5</t>
+          <t>-33,85; 85,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,86; 29,23</t>
+          <t>-60,81; 35,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 62,88</t>
+          <t>-59,82; 61,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,25</t>
+          <t>-0,79; 2,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,48</t>
+          <t>-1,63; 1,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,62</t>
+          <t>-1,45; 2,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,04</t>
+          <t>1,61; 6,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,5</t>
+          <t>-1,73; 2,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,86</t>
+          <t>-1,31; 2,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,24</t>
+          <t>1,14; 4,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,42</t>
+          <t>-1,1; 1,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,1</t>
+          <t>-0,76; 2,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 221,01</t>
+          <t>-29,64; 229,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 110,59</t>
+          <t>-57,35; 128,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 182,07</t>
+          <t>-56,15; 179,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,59; 262,5</t>
+          <t>26,25; 230,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 91,48</t>
+          <t>-35,91; 91,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 103,2</t>
+          <t>-28,34; 110,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,95; 181,36</t>
+          <t>31,32; 194,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 60,67</t>
+          <t>-29,48; 73,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 91,22</t>
+          <t>-21,99; 95,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,39</t>
+          <t>-0,95; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,87</t>
+          <t>-1,59; 2,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,29</t>
+          <t>-1,2; 4,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,72</t>
+          <t>-2,79; 3,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 2,96</t>
+          <t>-3,76; 2,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 1,64</t>
+          <t>-4,17; 1,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,74</t>
+          <t>-1,39; 2,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,91</t>
+          <t>-1,88; 1,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,16</t>
+          <t>-2,79; 2,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 251,6</t>
+          <t>-34,5; 250,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,43; 140,91</t>
+          <t>-49,85; 151,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 266,69</t>
+          <t>-34,17; 265,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 54,81</t>
+          <t>-26,06; 59,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 42,51</t>
+          <t>-34,96; 38,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 23,82</t>
+          <t>-38,56; 27,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 60,84</t>
+          <t>-21,29; 59,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 40,52</t>
+          <t>-29,38; 43,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 43,94</t>
+          <t>-39,86; 42,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,05</t>
+          <t>-0,54; 5,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,83</t>
+          <t>-2,37; 2,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,79</t>
+          <t>-0,26; 5,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 8,39</t>
+          <t>-1,72; 8,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 2,87</t>
+          <t>-5,71; 3,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,82</t>
+          <t>-4,52; 3,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,66</t>
+          <t>0,06; 5,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,13</t>
+          <t>-3,22; 2,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,32</t>
+          <t>-1,42; 3,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 202,02</t>
+          <t>-15,85; 216,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 132,05</t>
+          <t>-48,76; 118,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 231,06</t>
+          <t>-9,36; 210,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 80,58</t>
+          <t>-11,99; 78,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 29,05</t>
+          <t>-37,87; 35,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 38,83</t>
+          <t>-29,08; 33,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,59; 83,83</t>
+          <t>-0,51; 86,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 32,63</t>
+          <t>-32,66; 31,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 50,86</t>
+          <t>-15,35; 48,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,08</t>
+          <t>-2,6; 4,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,67</t>
+          <t>-4,4; 0,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,91</t>
+          <t>-4,09; 0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 7,83</t>
+          <t>-2,1; 7,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 8,21</t>
+          <t>-1,39; 7,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 3,2</t>
+          <t>-9,79; 3,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,69</t>
+          <t>-1,12; 4,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,64</t>
+          <t>-1,81; 3,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,27</t>
+          <t>-5,26; 1,1</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-51,67; 182,84</t>
+          <t>-53,49; 186,95</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-81,82; 39,17</t>
+          <t>-81,41; 42,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,96; 45,94</t>
+          <t>-73,08; 36,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 93,85</t>
+          <t>-17,59; 91,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 107,76</t>
+          <t>-12,43; 97,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-74,77; 33,33</t>
+          <t>-73,44; 37,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 75,45</t>
+          <t>-13,97; 75,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 60,63</t>
+          <t>-21,71; 64,19</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 19,07</t>
+          <t>-59,3; 17,12</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,89</t>
+          <t>-3,15; 5,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,6</t>
+          <t>-4,64; 2,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 4,51</t>
+          <t>-2,3; 4,89</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,29</t>
+          <t>-3,65; 6,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,05</t>
+          <t>-2,92; 7,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 4,15</t>
+          <t>-4,13; 4,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,38</t>
+          <t>-2,53; 4,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,17</t>
+          <t>-2,97; 4,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,15</t>
+          <t>-2,15; 3,29</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-52,69; 186,27</t>
+          <t>-49,16; 186,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-66,33; 112,78</t>
+          <t>-63,76; 123,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,23; 169,6</t>
+          <t>-35,54; 207,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 88,09</t>
+          <t>-30,42; 86,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 97,81</t>
+          <t>-23,7; 108,29</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 60,84</t>
+          <t>-32,04; 58,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 69,77</t>
+          <t>-26,2; 67,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 68,01</t>
+          <t>-29,74; 65,17</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 54,02</t>
+          <t>-21,28; 55,99</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,83</t>
+          <t>0,18; 1,93</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,75</t>
+          <t>-0,7; 0,68</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,9</t>
+          <t>0,18; 1,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,25</t>
+          <t>0,56; 3,07</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,9</t>
+          <t>-0,54; 1,77</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,92</t>
+          <t>-0,88; 1,85</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,19</t>
+          <t>0,67; 2,31</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,17</t>
+          <t>-0,34; 1,09</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,63</t>
+          <t>0,1; 1,71</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>4,37; 99,44</t>
+          <t>5,48; 102,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 43,5</t>
+          <t>-27,8; 37,1</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>4,21; 102,45</t>
+          <t>7,85; 104,67</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,78; 55,49</t>
+          <t>6,83; 52,1</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 32,59</t>
+          <t>-7,71; 29,55</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 32,85</t>
+          <t>-12,63; 31,16</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>14,81; 56,27</t>
+          <t>14,21; 57,59</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 29,43</t>
+          <t>-7,28; 27,41</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1,11; 39,86</t>
+          <t>2,42; 43,0</t>
         </is>
       </c>
     </row>
